--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A73946-56CF-47E6-B482-E1571D063132}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF195D0-E017-4CCE-A270-264FD7F70D31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="1332" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2220" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>AR1_state_based_logistic(100)</t>
+  </si>
+  <si>
+    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,10 +499,25 @@
       <c r="D4">
         <v>0.01</v>
       </c>
+      <c r="E4" s="1">
+        <v>0.36743928284545502</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.96048888888888895</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.96632566069906201</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.67390501244280998</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF195D0-E017-4CCE-A270-264FD7F70D31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45360F-54EF-4F67-9A55-DD1191DFEDA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="2220" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>AR1_state_based_logistic(100)</t>
-  </si>
-  <si>
-    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +491,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D4">
         <v>0.01</v>
@@ -516,8 +513,17 @@
       <c r="D5">
         <v>0.1</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="E5" s="1">
+        <v>0.57752053512115598</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.89190101010100997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.924929017603634</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.68166065056201697</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -562,15 +568,39 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D8">
         <v>0.01</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.19905787811293599</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.96263580246913605</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.96481481481481501</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.86849993806515502</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>0.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.45145268855521797</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.88279012345678998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.88580931263858098</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.874185372918175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -618,7 +648,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D12">
         <v>0.01</v>
@@ -671,7 +701,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D16">
         <v>0.01</v>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45360F-54EF-4F67-9A55-DD1191DFEDA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB56EA-336E-43EA-9B59-CA662029AD7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2220" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="2688" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,6 +653,18 @@
       <c r="D12">
         <v>0.01</v>
       </c>
+      <c r="E12" s="1">
+        <v>0.43762828849158802</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.92177979797979803</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.45767485526521701</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.67427802363246503</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB56EA-336E-43EA-9B59-CA662029AD7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCAB06-150A-4319-B56A-5C7B204004EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2688" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +670,18 @@
       <c r="D13">
         <v>0.1</v>
       </c>
+      <c r="E13" s="1">
+        <v>0.63701747803985398</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.81920606060606105</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.59967446907456201</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.68574966538504201</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCAB06-150A-4319-B56A-5C7B204004EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A62C25-F737-419E-90F2-F425E10C2166}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2688" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6564" yWindow="4200" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,10 +91,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -404,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,1085 +429,1761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.47260005416005701</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.92636363636363594</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.25362318840579701</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0.69753086419753096</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.639622411001465</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.86624242424242404</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.676056338028169</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.70616289873025695</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.36743928284545502</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.96048888888888895</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.96632566069906201</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.67390501244280998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.57752053512115598</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.89190101010100997</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.924929017603634</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.68166065056201697</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.32194934869862901</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.91722222222222205</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.88553435821448401</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.542337030140425</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.83444444444444399</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0.89038031319910504</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>3000</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.19905787811293599</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.96263580246913605</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.96481481481481501</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.86849993806515502</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.45145268855521797</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.88279012345678998</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.88580931263858098</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.874185372918175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.48837389679496301</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.91939393939393899</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.21978021978022</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.69702169383502899</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.66481651710673995</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.83084848484848495</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>0.49103942652329002</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.70803805145885201</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>3000</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.43762828849158802</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.92177979797979803</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.45767485526521701</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0.67427802363246503</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.63701747803985398</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.81920606060606105</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>0.59967446907456201</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.68574966538504201</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.33125573024590599</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.89462962962963</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>0.148148148148148</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0.88624338624338606</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.53412899051003404</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.80185185185185204</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>0.33771929824561397</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>0.89539829853054898</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>3000</v>
-      </c>
-      <c r="D16">
-        <v>0.01</v>
-      </c>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>0.1</v>
-      </c>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.34125412452521198</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.99339393939393905</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>0.97816593886462899</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>3.5998459958932201E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.45637949975270797</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0.98521212121212098</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>0.98520866349709502</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>3.78585609639214E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>1000</v>
-      </c>
-      <c r="D20">
-        <v>0.01</v>
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.23212027608806701</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.99673333333333303</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.96659538382125199</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.0185319427798699E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>0.1</v>
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.37091516350214898</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.99463030303030298</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.98722089314194605</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2.1423433144501399E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>36</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>0.01</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.24690898163650299</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.96574074074074101</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>0.96129032258064495</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>2.9079497907949801E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.31309166611071998</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0.937037037037037</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>0.96787148594377503</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>2.9873200085966001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>1000</v>
-      </c>
-      <c r="D24">
-        <v>0.01</v>
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.12844666918341399</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.99588271604938305</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.92309412027721904</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.5971865140579099E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D25">
-        <v>0.1</v>
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.23138916291671199</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.99242592592592604</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.95865060240963895</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.60329760923331E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>0.01</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.37445818033377098</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0.99503030303030304</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>0.97816593886462899</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>3.5998459958932201E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D27">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.47163032684068501</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0.991575757575758</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>0.98520866349709502</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>3.78585609639214E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <v>1000</v>
-      </c>
-      <c r="D28">
-        <v>0.01</v>
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.28210889054906102</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.99857979797979801</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.96659538382125199</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.0185319427798699E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D29">
-        <v>0.1</v>
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.40387825156927099</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.99744444444444402</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.98722089314194605</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2.1423433144501399E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>0.01</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="2">
         <v>0.22913072404079801</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0.99055555555555597</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>0.96129032258064495</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>2.9079497907949801E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="2">
         <v>0.29378073454491199</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0.97555555555555595</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>0.96787148594377503</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>2.9873200085966001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>1000</v>
-      </c>
-      <c r="D32">
-        <v>0.01</v>
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.12814425584116601</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.99595679012345695</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.92309412027718996</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.5971865140579099E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D33">
-        <v>0.1</v>
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.231251463631509</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.99229012345679002</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.95865060240963895</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.60329760923331E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>0.01</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="B34" s="1">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="2">
         <v>0.393717725354713</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0.90163636363636401</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>0.90797217763509896</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>0.175654432369626</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D35">
-        <v>0.1</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="2">
         <v>0.56229618974507101</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0.89078787878787902</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>0.91827148896195399</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>0.17869320158652799</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C36">
-        <v>1000</v>
-      </c>
-      <c r="D36">
-        <v>0.01</v>
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.26122261323307999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.92673737373737397</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.877157052376076</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.16687242519207901</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D37">
-        <v>0.1</v>
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.46237842411212399</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.919543434343434</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.89036024016010695</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.16942350128723799</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="2">
         <v>0.40183149040475402</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0.92129629629629595</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="2">
         <v>0.86956521739130399</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <v>0.169595422966898</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D39">
-        <v>0.1</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="2">
         <v>0.47228000312951601</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0.91351851851851895</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="2">
         <v>0.88129496402877705</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <v>0.171345995045417</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <v>1000</v>
-      </c>
-      <c r="D40">
-        <v>0.01</v>
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.34683351820578401</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.93416666666666703</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.86746299365605495</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.159595302519671</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D41">
-        <v>0.1</v>
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.43362715650175099</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.93225925925925901</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.86957735469823005</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.159935872967402</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <v>0.01</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="2">
         <v>0.56353656498932803</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0.89715151515151503</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>0.82110494007600099</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <v>0.16285648749904399</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D43">
-        <v>0.1</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="2">
         <v>0.67999890604786695</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0.88890909090909098</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="2">
         <v>0.166042446941323</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C44">
-        <v>1000</v>
-      </c>
-      <c r="D44">
-        <v>0.01</v>
-      </c>
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D45">
-        <v>0.1</v>
-      </c>
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>36</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1">
+        <v>36</v>
+      </c>
+      <c r="C46" s="1">
+        <v>100</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="2">
         <v>0.57106853864014995</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0.91259259259259295</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>0.82374429223744305</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <v>0.16329849012775799</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D47">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>36</v>
+      </c>
+      <c r="C47" s="1">
+        <v>100</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="2">
         <v>0.62555458163739297</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0.90462962962963001</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>0.82965578111209204</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <v>0.164752753691118</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <v>1000</v>
-      </c>
-      <c r="D48">
-        <v>0.01</v>
-      </c>
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D49">
-        <v>0.1</v>
-      </c>
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1">
+        <v>36</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B50">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50">
-        <v>0.01</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="B50" s="1">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E50" s="2">
         <v>0.61627218225883296</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0.87630303030303003</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>0.81575178997613396</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>0.16003249390739199</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D51">
-        <v>0.1</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1">
+        <v>100</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="2">
         <v>0.71867641076821198</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0.87018181818181795</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>0.82571492907002897</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>0.16319761174226699</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C52">
-        <v>1000</v>
-      </c>
-      <c r="D52">
-        <v>0.01</v>
-      </c>
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D53">
-        <v>0.1</v>
-      </c>
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>36</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="D54">
-        <v>0.01</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="2">
         <v>0.67373001489481599</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0.89462962962963</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <v>0.82469135802469096</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="2">
         <v>0.16320191158900799</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D55">
-        <v>0.1</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1">
+        <v>36</v>
+      </c>
+      <c r="C55" s="1">
+        <v>100</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="2">
         <v>0.71877454580455102</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0.88703703703703696</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>0.82932692307692302</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="2">
         <v>0.164499036608863</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C56">
-        <v>1000</v>
-      </c>
-      <c r="D56">
-        <v>0.01</v>
-      </c>
+      <c r="A56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D57">
-        <v>0.1</v>
-      </c>
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1">
+        <v>36</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B58">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="D58">
-        <v>0.01</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="B58" s="1">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="2">
         <v>0.70476640085883901</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0.81472727272727297</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="2">
         <v>0.82672371235807096</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="2">
         <v>0.162045476350379</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D59">
-        <v>0.1</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="A59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1">
+        <v>100</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E59" s="2">
         <v>0.78093910366097596</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0.80963636363636404</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <v>0.83088470137336301</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="2">
         <v>0.164387575698379</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C60">
-        <v>1000</v>
-      </c>
-      <c r="D60">
-        <v>0.01</v>
-      </c>
+      <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D61">
-        <v>0.1</v>
-      </c>
+      <c r="A61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B62">
-        <v>36</v>
-      </c>
-      <c r="C62">
-        <v>100</v>
-      </c>
-      <c r="D62">
-        <v>0.01</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1">
+        <v>36</v>
+      </c>
+      <c r="C62" s="1">
+        <v>100</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E62" s="2">
         <v>0.74540982840807302</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>0.85018518518518504</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <v>0.85427423981640804</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="2">
         <v>0.17555373256767801</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D63">
-        <v>0.1</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1">
+        <v>36</v>
+      </c>
+      <c r="C63" s="1">
+        <v>100</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E63" s="2">
         <v>0.76917716949397297</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0.84277777777777796</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="2">
         <v>0.855850763143019</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="2">
         <v>0.176535389699807</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C64">
-        <v>1000</v>
-      </c>
-      <c r="D64">
-        <v>0.01</v>
-      </c>
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D65">
-        <v>0.1</v>
-      </c>
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B66">
-        <v>12</v>
-      </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
-      <c r="D66">
-        <v>0.01</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="B66" s="1">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1">
+        <v>100</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E66" s="2">
         <v>0.75723426622568402</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0.71</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <v>0.82993197278911601</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="2">
         <v>0.162448009506833</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D67">
-        <v>0.1</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="A67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1">
+        <v>100</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="2">
         <v>0.81938169507830805</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0.70581818181818201</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="2">
         <v>0.83166991236611498</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="2">
         <v>0.16405118300338001</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C68">
-        <v>1000</v>
-      </c>
-      <c r="D68">
-        <v>0.01</v>
-      </c>
+      <c r="A68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D69">
-        <v>0.1</v>
-      </c>
+      <c r="A69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B70">
-        <v>36</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="D70">
-        <v>0.01</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1">
+        <v>36</v>
+      </c>
+      <c r="C70" s="1">
+        <v>100</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E70" s="2">
         <v>0.78887077941644601</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>0.81537037037036997</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="2">
         <v>0.84050514499532303</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="2">
         <v>0.170141017780503</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D71">
-        <v>0.1</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="A71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1">
+        <v>36</v>
+      </c>
+      <c r="C71" s="1">
+        <v>100</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="2">
         <v>0.80831208204802096</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>0.80851851851851897</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="2">
         <v>0.841959334565619</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="2">
         <v>0.17119901112484501</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C72">
-        <v>1000</v>
-      </c>
-      <c r="D72">
-        <v>0.01</v>
-      </c>
+      <c r="A72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="1">
+        <v>36</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D73">
-        <v>0.1</v>
-      </c>
+      <c r="A73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="1">
+        <v>36</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A62C25-F737-419E-90F2-F425E10C2166}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C0DA1-5B2D-4CAB-919D-EA8AB8CB5E25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6564" yWindow="4200" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3024" yWindow="3492" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1543,10 +1543,18 @@
       <c r="D44" s="1">
         <v>0.01</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="E44">
+        <v>0.41876047285940898</v>
+      </c>
+      <c r="F44">
+        <v>0.83934141414141406</v>
+      </c>
+      <c r="G44">
+        <v>0.82455608291506799</v>
+      </c>
+      <c r="H44">
+        <v>0.1573645161468</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -1561,10 +1569,18 @@
       <c r="D45" s="1">
         <v>0.1</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="E45">
+        <v>0.58753167978420995</v>
+      </c>
+      <c r="F45">
+        <v>0.83210303030303001</v>
+      </c>
+      <c r="G45">
+        <v>0.83266352649698205</v>
+      </c>
+      <c r="H45">
+        <v>0.160172285022771</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -1631,10 +1647,18 @@
       <c r="D48" s="1">
         <v>0.01</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="E48">
+        <v>0.52980843169437297</v>
+      </c>
+      <c r="F48">
+        <v>0.86441358024691395</v>
+      </c>
+      <c r="G48">
+        <v>0.841744815901878</v>
+      </c>
+      <c r="H48">
+        <v>0.15612067314497899</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -1649,10 +1673,18 @@
       <c r="D49" s="1">
         <v>0.1</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="E49">
+        <v>0.593839572604411</v>
+      </c>
+      <c r="F49">
+        <v>0.86243209876543203</v>
+      </c>
+      <c r="G49">
+        <v>0.84207536451429699</v>
+      </c>
+      <c r="H49">
+        <v>0.156231211169751</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -1719,10 +1751,18 @@
       <c r="D52" s="1">
         <v>0.01</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="E52">
+        <v>0.49404504254967602</v>
+      </c>
+      <c r="F52">
+        <v>0.76593131313131302</v>
+      </c>
+      <c r="G52">
+        <v>0.83120528494284696</v>
+      </c>
+      <c r="H52">
+        <v>0.15832306978678501</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -1737,10 +1777,18 @@
       <c r="D53" s="1">
         <v>0.1</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="E53">
+        <v>0.63846970060777897</v>
+      </c>
+      <c r="F53">
+        <v>0.76032525252525296</v>
+      </c>
+      <c r="G53">
+        <v>0.83528531737550804</v>
+      </c>
+      <c r="H53">
+        <v>0.16064189189189201</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -1807,10 +1855,18 @@
       <c r="D56" s="1">
         <v>0.01</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="E56">
+        <v>0.61259306516572298</v>
+      </c>
+      <c r="F56">
+        <v>0.82929629629629598</v>
+      </c>
+      <c r="G56">
+        <v>0.84803759090643205</v>
+      </c>
+      <c r="H56">
+        <v>0.158855036988194</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -1825,10 +1881,18 @@
       <c r="D57" s="1">
         <v>0.1</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="E57">
+        <v>0.66189198041641295</v>
+      </c>
+      <c r="F57">
+        <v>0.82793209876543195</v>
+      </c>
+      <c r="G57">
+        <v>0.84828629032258096</v>
+      </c>
+      <c r="H57">
+        <v>0.15898963918272699</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -147,10 +147,18 @@
       <c r="E2" t="n">
         <v>100.0</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="F2" t="n">
+        <v>0.33875537186453425</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9681006197593875</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6670909862399224</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -185,10 +193,16 @@
       <c r="E4" t="n">
         <v>100.0</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="F4" t="n">
+        <v>0.16974133408103617</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.974631598582354</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>0.8605555555555555</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -223,10 +237,18 @@
       <c r="E6" t="n">
         <v>100.0</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="F6" t="n">
+        <v>0.3809640099915847</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.962026854608421</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6672123196313811</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -261,10 +283,16 @@
       <c r="E8" t="n">
         <v>100.0</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="F8" t="n">
+        <v>0.21286062017741395</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9638262166697744</v>
+      </c>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" t="n">
+        <v>0.8605555555555555</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -299,10 +327,18 @@
       <c r="E10" t="n">
         <v>100.0</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="F10" t="n">
+        <v>0.4266875168488378</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9548575247584908</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6673741661613098</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -337,10 +373,16 @@
       <c r="E12" t="n">
         <v>100.0</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="F12" t="n">
+        <v>0.2702126486256718</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9446308724832215</v>
+      </c>
       <c r="H12"/>
-      <c r="I12"/>
+      <c r="I12" t="n">
+        <v>0.8605555555555555</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -375,10 +417,18 @@
       <c r="E14" t="n">
         <v>100.0</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="F14" t="n">
+        <v>0.5804113409598435</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8938455935906774</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6757322175732218</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -413,10 +463,18 @@
       <c r="E16" t="n">
         <v>100.0</v>
       </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="F16" t="n">
+        <v>0.4534859321011006</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8869014346934972</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8632224493588553</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -536,10 +536,18 @@
       <c r="E19" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="F19" t="n">
+        <v>0.3909026575573424</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9333341429991235</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4435153732253288</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6735867670143262</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -628,10 +636,18 @@
       <c r="E23" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="F23" t="n">
+        <v>0.43762828849158847</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9216325621875443</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.45767485526521673</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.674278023632465</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -720,10 +736,18 @@
       <c r="E27" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="F27" t="n">
+        <v>0.4896511964912726</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9040198991280975</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.489528256540548</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6757327183376801</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -812,10 +836,18 @@
       <c r="E31" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="F31" t="n">
+        <v>0.6370174780398544</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8189862843573713</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5996744690745621</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6857496653850417</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -904,10 +936,18 @@
       <c r="E35" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="F35" t="n">
+        <v>0.17228196985117633</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9937030175818538</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7969006381039198</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.16172333840638184</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -996,10 +1036,18 @@
       <c r="E39" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="F39" t="n">
+        <v>0.1948242925820668</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9936969569635494</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.822975799223185</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1619783496414134</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1272,10 +1320,18 @@
       <c r="E51" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="F51" t="n">
+        <v>0.2484381504366171</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9940888650055152</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.7969006381039198</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.16172333840638184</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1318,10 +1374,18 @@
       <c r="E53" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
+      <c r="F53" t="n">
+        <v>0.13926645363586235</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9964506172839506</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.5100548446069469</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.153262367562781</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1364,10 +1428,18 @@
       <c r="E55" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="F55" t="n">
+        <v>0.27179719860988605</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.993834318522499</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.822975799223185</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.1619783496414134</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1410,10 +1482,18 @@
       <c r="E57" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="F57" t="n">
+        <v>0.15015980142404153</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9963333333333333</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.5580524344569289</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.1533432002547914</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1456,10 +1536,18 @@
       <c r="E59" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
+      <c r="F59" t="n">
+        <v>0.2992402532133505</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.993531286995099</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8512213993589035</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.16243134624130318</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1502,10 +1590,18 @@
       <c r="E61" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="F61" t="n">
+        <v>0.1634330240397005</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9962037037037037</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6040329972502292</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.15340574903953247</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1548,10 +1644,18 @@
       <c r="E63" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="F63" t="n">
+        <v>0.38618967660241427</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9922524939494705</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9269547815314242</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.16612835512950067</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1594,10 +1698,18 @@
       <c r="E65" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
+      <c r="F65" t="n">
+        <v>0.20811358814950762</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9950617283950617</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.7165021156558533</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1538354737938216</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -1720,10 +1832,18 @@
       <c r="E71" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
+      <c r="F71" t="n">
+        <v>0.26122261323308</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.926737225731769</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.877157052376076</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.166872425192079</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -1762,10 +1882,18 @@
       <c r="E73" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
+      <c r="F73" t="n">
+        <v>0.346833518205784</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.934166666666667</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.867462993656055</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.159595302519671</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -1888,10 +2016,18 @@
       <c r="E79" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
+      <c r="F79" t="n">
+        <v>0.462378424112124</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.91954327180459</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.890360240160107</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.169423501287238</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -1930,10 +2066,18 @@
       <c r="E81" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
+      <c r="F81" t="n">
+        <v>0.433627156501751</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.932259259259259</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.86957735469823</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.159935872967402</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -2056,10 +2200,18 @@
       <c r="E87" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
+      <c r="F87" t="n">
+        <v>0.418760472859409</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.839341089577959</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.824556082915068</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.1573645161468</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2098,10 +2250,18 @@
       <c r="E89" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
+      <c r="F89" t="n">
+        <v>0.529808431694373</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.864413580246914</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.841744815901878</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.156120673144979</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -2224,10 +2384,18 @@
       <c r="E95" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
+      <c r="F95" t="n">
+        <v>0.58753167978421</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.832102691116548</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.832663526496982</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.160172285022771</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2266,10 +2434,18 @@
       <c r="E97" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
+      <c r="F97" t="n">
+        <v>0.593839572604411</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.862432098765432</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.842075364514297</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.156231211169751</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -2392,10 +2568,18 @@
       <c r="E103" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
+      <c r="F103" t="n">
+        <v>0.494045042549676</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.765930840264324</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.831205284942847</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.158323069786785</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2434,10 +2618,18 @@
       <c r="E105" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
+      <c r="F105" t="n">
+        <v>0.612593065165723</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.829296296296296</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.848037590906432</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.158855036988194</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -2560,10 +2752,18 @@
       <c r="E111" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
+      <c r="F111" t="n">
+        <v>0.638469700607779</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.760324768332865</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.835285317375508</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.160641891891892</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -2602,10 +2802,18 @@
       <c r="E113" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
+      <c r="F113" t="n">
+        <v>0.661891980416413</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.827932098765432</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.848286290322581</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.158989639182727</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -2728,10 +2936,18 @@
       <c r="E119" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
+      <c r="F119" t="n">
+        <v>0.600363273323535</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.675569041553619</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.839459664012042</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.163667714856454</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -2770,10 +2986,18 @@
       <c r="E121" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
+      <c r="F121" t="n">
+        <v>0.693497444691452</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.788543209876543</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.848963569342716</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.16022872559975</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -2896,10 +3120,18 @@
       <c r="E127" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
+      <c r="F127" t="n">
+        <v>0.710267175392594</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.671496306053144</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.841047748701659</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.165172526497642</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -2938,10 +3170,18 @@
       <c r="E129" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
+      <c r="F129" t="n">
+        <v>0.726543069495597</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.787222222222222</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.849000763747454</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.160269081813781</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -174,10 +174,18 @@
       <c r="E3" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="F3" t="n">
+        <v>0.32137614754725685</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.968159252350078</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6731850824584666</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -218,10 +226,18 @@
       <c r="E5" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="F5" t="n">
+        <v>0.15404849992861813</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9748733724868711</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9807692307692307</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8679015249034557</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -264,10 +280,18 @@
       <c r="E7" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="F7" t="n">
+        <v>0.3674392828454549</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.960389021209028</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9663256606990622</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6739050124428098</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -308,10 +332,18 @@
       <c r="E9" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="F9" t="n">
+        <v>0.1990578781129361</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9623901778280374</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9648148148148148</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8684999380651555</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -354,10 +386,18 @@
       <c r="E11" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="F11" t="n">
+        <v>0.42020006224615064</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.949659767507797</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9662787227693226</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6752134144481123</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -398,10 +438,18 @@
       <c r="E13" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="F13" t="n">
+        <v>0.2570211084186201</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.945581019812434</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9624060150375939</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8691356494251092</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -444,10 +492,18 @@
       <c r="E15" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="F15" t="n">
+        <v>0.5775205351211555</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8917032317606295</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9249290176036343</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6816606505620173</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -490,10 +546,18 @@
       <c r="E17" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="F17" t="n">
+        <v>0.4514526885552177</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8822120901957136</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.885809312638581</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8741853729181752</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -536,18 +600,10 @@
       <c r="E19" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.3909026575573424</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.9333341429991235</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.4435153732253288</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.6735867670143262</v>
-      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -636,18 +692,10 @@
       <c r="E23" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.43762828849158847</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9216325621875443</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.45767485526521673</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.674278023632465</v>
-      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -736,18 +784,10 @@
       <c r="E27" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.4896511964912726</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9040198991280975</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.489528256540548</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.6757327183376801</v>
-      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -836,18 +876,10 @@
       <c r="E31" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.6370174780398544</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.8189862843573713</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.5996744690745621</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.6857496653850417</v>
-      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -936,18 +968,10 @@
       <c r="E35" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.17228196985117633</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.9937030175818538</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.7969006381039198</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.16172333840638184</v>
-      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1036,18 +1060,10 @@
       <c r="E39" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.1948242925820668</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.9936969569635494</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.822975799223185</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.1619783496414134</v>
-      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1320,18 +1336,10 @@
       <c r="E51" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F51" t="n">
-        <v>0.2484381504366171</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.9940888650055152</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.7969006381039198</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.16172333840638184</v>
-      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1374,18 +1382,10 @@
       <c r="E53" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.13926645363586235</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.9964506172839506</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.5100548446069469</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.153262367562781</v>
-      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1428,18 +1428,10 @@
       <c r="E55" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.27179719860988605</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.993834318522499</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.822975799223185</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.1619783496414134</v>
-      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1482,18 +1474,10 @@
       <c r="E57" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F57" t="n">
-        <v>0.15015980142404153</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.9963333333333333</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.5580524344569289</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.1533432002547914</v>
-      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1536,18 +1520,10 @@
       <c r="E59" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F59" t="n">
-        <v>0.2992402532133505</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.993531286995099</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.8512213993589035</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.16243134624130318</v>
-      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1590,18 +1566,10 @@
       <c r="E61" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.1634330240397005</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.9962037037037037</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.6040329972502292</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.15340574903953247</v>
-      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1644,18 +1612,10 @@
       <c r="E63" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.38618967660241427</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.9922524939494705</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.9269547815314242</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.16612835512950067</v>
-      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1698,18 +1658,10 @@
       <c r="E65" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.20811358814950762</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.9950617283950617</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.7165021156558533</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.1538354737938216</v>
-      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -1832,18 +1784,10 @@
       <c r="E71" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F71" t="n">
-        <v>0.26122261323308</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.926737225731769</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.877157052376076</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.166872425192079</v>
-      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -1882,18 +1826,10 @@
       <c r="E73" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F73" t="n">
-        <v>0.346833518205784</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.934166666666667</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.867462993656055</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.159595302519671</v>
-      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -2016,18 +1952,10 @@
       <c r="E79" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.462378424112124</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.91954327180459</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.890360240160107</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.169423501287238</v>
-      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -2066,18 +1994,10 @@
       <c r="E81" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F81" t="n">
-        <v>0.433627156501751</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.932259259259259</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.86957735469823</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.159935872967402</v>
-      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -2200,18 +2120,10 @@
       <c r="E87" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F87" t="n">
-        <v>0.418760472859409</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.839341089577959</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.824556082915068</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.1573645161468</v>
-      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2250,18 +2162,10 @@
       <c r="E89" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F89" t="n">
-        <v>0.529808431694373</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.864413580246914</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.841744815901878</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.156120673144979</v>
-      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -2384,18 +2288,10 @@
       <c r="E95" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F95" t="n">
-        <v>0.58753167978421</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.832102691116548</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.832663526496982</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.160172285022771</v>
-      </c>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2434,18 +2330,10 @@
       <c r="E97" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F97" t="n">
-        <v>0.593839572604411</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.862432098765432</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.842075364514297</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.156231211169751</v>
-      </c>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -2568,18 +2456,10 @@
       <c r="E103" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F103" t="n">
-        <v>0.494045042549676</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.765930840264324</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.831205284942847</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.158323069786785</v>
-      </c>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2618,18 +2498,10 @@
       <c r="E105" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F105" t="n">
-        <v>0.612593065165723</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.829296296296296</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.848037590906432</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.158855036988194</v>
-      </c>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -2752,18 +2624,10 @@
       <c r="E111" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F111" t="n">
-        <v>0.638469700607779</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.760324768332865</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.835285317375508</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.160641891891892</v>
-      </c>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -2802,18 +2666,10 @@
       <c r="E113" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F113" t="n">
-        <v>0.661891980416413</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.827932098765432</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.848286290322581</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.158989639182727</v>
-      </c>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -2936,18 +2792,10 @@
       <c r="E119" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F119" t="n">
-        <v>0.600363273323535</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.675569041553619</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.839459664012042</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.163667714856454</v>
-      </c>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -2986,18 +2834,10 @@
       <c r="E121" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F121" t="n">
-        <v>0.693497444691452</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.788543209876543</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.848963569342716</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.16022872559975</v>
-      </c>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -3120,18 +2960,10 @@
       <c r="E127" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F127" t="n">
-        <v>0.710267175392594</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.671496306053144</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.841047748701659</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.165172526497642</v>
-      </c>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -3170,18 +3002,10 @@
       <c r="E129" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F129" t="n">
-        <v>0.726543069495597</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.787222222222222</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.849000763747454</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.160269081813781</v>
-      </c>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD5E0E-D8EF-470E-BC6C-92A290DB27B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD9BAA-A1E6-4908-A066-AC9B258FB65F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="3144" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="2268" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,7 +416,7 @@
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F2" sqref="F2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E2FA8-2D6B-4DB0-AB9E-4B196D7663AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D28BCD-5836-41E1-B7E7-0C66DFA4FF9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="804" yWindow="2688" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1368" yWindow="3060" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -415,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:I161"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="N125" sqref="N125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,16 +2074,16 @@
       <c r="E66">
         <v>100</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>0.26487834166546753</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>0.92509090909090907</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>0.87227722772277227</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>0.16754143646408839</v>
       </c>
     </row>
@@ -2102,16 +2103,16 @@
       <c r="E67">
         <v>3000</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>0.23523241339944925</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>0.92734934818050141</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <v>0.87670211138310894</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>0.16677433636314354</v>
       </c>
     </row>
@@ -2131,16 +2132,16 @@
       <c r="E68">
         <v>100</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>0.32804434624954026</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>0.96037037037037032</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>0.91721132897603486</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>0.15907710989678203</v>
       </c>
     </row>
@@ -2160,6 +2161,10 @@
       <c r="E69">
         <v>3000</v>
       </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2177,16 +2182,16 @@
       <c r="E70">
         <v>100</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>0.28241969509110337</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>0.924969696969697</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>0.87240356083086057</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>0.16756458074319658</v>
       </c>
     </row>
@@ -2206,16 +2211,16 @@
       <c r="E71">
         <v>3000</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>0.26122261323307999</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>0.92673722573176898</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="1">
         <v>0.877157052376076</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1">
         <v>0.16687242519207901</v>
       </c>
     </row>
@@ -2235,16 +2240,16 @@
       <c r="E72">
         <v>100</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>0.3480524121047629</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>0.96037037037037032</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>0.92292089249492903</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>0.16017933564295903</v>
       </c>
     </row>
@@ -2264,16 +2269,16 @@
       <c r="E73">
         <v>3000</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>0.34683351820578401</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>0.93416666666666703</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>0.86746299365605495</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>0.159595302519671</v>
       </c>
     </row>
@@ -2293,16 +2298,16 @@
       <c r="E74">
         <v>100</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>0.33249729974045861</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>0.9242424242424242</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="1">
         <v>0.87303149606299213</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1">
         <v>0.16768039811998894</v>
       </c>
     </row>
@@ -2322,16 +2327,16 @@
       <c r="E75">
         <v>3000</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>0.30450281321697509</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>0.92599783029864702</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <v>0.87804014387684737</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1">
         <v>0.16707186927174555</v>
       </c>
     </row>
@@ -2351,16 +2356,16 @@
       <c r="E76">
         <v>100</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>0.37106428826619536</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>0.96037037037037032</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <v>0.92105263157894735</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="1">
         <v>0.16000815328169588</v>
       </c>
     </row>
@@ -2380,6 +2385,10 @@
       <c r="E77">
         <v>3000</v>
       </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2397,16 +2406,16 @@
       <c r="E78">
         <v>100</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>0.49760019710304754</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>0.91533333333333333</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="1">
         <v>0.8740234375</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="1">
         <v>0.16786603930251867</v>
       </c>
     </row>
@@ -2426,16 +2435,16 @@
       <c r="E79">
         <v>3000</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>0.46237842411212399</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>0.91954327180458995</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="1">
         <v>0.89036024016010695</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="1">
         <v>0.16942350128723799</v>
       </c>
     </row>
@@ -2455,16 +2464,16 @@
       <c r="E80">
         <v>100</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>0.4488569093573252</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>0.95925925925925926</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <v>0.92215568862275454</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="1">
         <v>0.16023678301694225</v>
       </c>
     </row>
@@ -2484,16 +2493,16 @@
       <c r="E81">
         <v>3000</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>0.43362715650175099</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>0.93225925925925901</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="1">
         <v>0.86957735469823005</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="1">
         <v>0.159935872967402</v>
       </c>
     </row>
@@ -2513,16 +2522,16 @@
       <c r="E82">
         <v>100</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>0.45011971482527496</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1">
         <v>0.83739393939393936</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="1">
         <v>0.83503586176918065</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="1">
         <v>0.1617783006975376</v>
       </c>
     </row>
@@ -2542,16 +2551,16 @@
       <c r="E83">
         <v>3000</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>0.39806330385140581</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <v>0.83966230234808559</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="1">
         <v>0.8241800848424029</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="1">
         <v>0.157246149528699</v>
       </c>
     </row>
@@ -2571,16 +2580,16 @@
       <c r="E84">
         <v>100</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>0.50282966801327444</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1">
         <v>0.85222222222222221</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="1">
         <v>0.81160458452722062</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="1">
         <v>0.14010989010989011</v>
       </c>
     </row>
@@ -2600,6 +2609,10 @@
       <c r="E85">
         <v>3000</v>
       </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -2617,16 +2630,16 @@
       <c r="E86">
         <v>100</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>0.46782808005380572</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <v>0.83721212121212119</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="1">
         <v>0.83503586176918065</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="1">
         <v>0.1617783006975376</v>
       </c>
     </row>
@@ -2646,16 +2659,16 @@
       <c r="E87">
         <v>3000</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>0.41876047285940898</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>0.83934108957795905</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="1">
         <v>0.82455608291506799</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="1">
         <v>0.1573645161468</v>
       </c>
     </row>
@@ -2675,16 +2688,16 @@
       <c r="E88">
         <v>100</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>0.52383511621771939</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>0.85222222222222221</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="1">
         <v>0.81504922644163147</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="1">
         <v>0.14102564102564102</v>
       </c>
     </row>
@@ -2704,16 +2717,16 @@
       <c r="E89">
         <v>3000</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>0.52980843169437297</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <v>0.86441358024691395</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="1">
         <v>0.841744815901878</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="1">
         <v>0.15612067314497899</v>
       </c>
     </row>
@@ -2733,16 +2746,16 @@
       <c r="E90">
         <v>100</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>0.50944617961285377</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1">
         <v>0.83666666666666667</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="1">
         <v>0.83503586176918065</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="1">
         <v>0.1617783006975376</v>
       </c>
     </row>
@@ -2762,16 +2775,16 @@
       <c r="E91">
         <v>3000</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>0.45384259512016462</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="1">
         <v>0.8384784615726496</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="1">
         <v>0.82532760957975604</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="1">
         <v>0.15760311412953454</v>
       </c>
     </row>
@@ -2791,16 +2804,16 @@
       <c r="E92">
         <v>100</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>0.53503806563256995</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1">
         <v>0.85203703703703704</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="1">
         <v>0.81447645818692904</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="1">
         <v>0.1408096555192356</v>
       </c>
     </row>
@@ -2820,6 +2833,10 @@
       <c r="E93">
         <v>3000</v>
       </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -2837,16 +2854,16 @@
       <c r="E94">
         <v>100</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
         <v>0.62558170936243096</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1">
         <v>0.827030303030303</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="1">
         <v>0.83553629469122426</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="1">
         <v>0.16196886832141355</v>
       </c>
     </row>
@@ -2866,16 +2883,16 @@
       <c r="E95">
         <v>3000</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>0.58753167978420995</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <v>0.832102691116548</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="1">
         <v>0.83266352649698205</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="1">
         <v>0.160172285022771</v>
       </c>
     </row>
@@ -2895,16 +2912,16 @@
       <c r="E96">
         <v>100</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>0.60000411673660181</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <v>0.85</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="1">
         <v>0.81512605042016806</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="1">
         <v>0.14098690835850958</v>
       </c>
     </row>
@@ -2924,16 +2941,16 @@
       <c r="E97">
         <v>3000</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>0.593839572604411</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>0.86243209876543203</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="1">
         <v>0.84207536451429699</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="1">
         <v>0.156231211169751</v>
       </c>
     </row>
@@ -2953,16 +2970,16 @@
       <c r="E98">
         <v>100</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>0.54171349522399759</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1">
         <v>0.71472727272727277</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="1">
         <v>0.8599233264523739</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="1">
         <v>0.17843177608561434</v>
       </c>
     </row>
@@ -2982,16 +2999,16 @@
       <c r="E99">
         <v>3000</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>0.47646542636348549</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1">
         <v>0.76614094169887215</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="1">
         <v>0.83090375806044092</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="1">
         <v>0.15815912417156114</v>
       </c>
     </row>
@@ -3011,16 +3028,16 @@
       <c r="E100">
         <v>100</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
         <v>0.59897980036642673</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="1">
         <v>0.84406215316315203</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="1">
         <v>0.15091717620900499</v>
       </c>
     </row>
@@ -3040,6 +3057,10 @@
       <c r="E101">
         <v>3000</v>
       </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -3057,16 +3078,16 @@
       <c r="E102">
         <v>100</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>0.55533178871850419</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="1">
         <v>0.71460606060606058</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="1">
         <v>0.8599233264523739</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="1">
         <v>0.17843177608561434</v>
       </c>
     </row>
@@ -3086,16 +3107,16 @@
       <c r="E103">
         <v>3000</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>0.49404504254967602</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <v>0.76593084026432401</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="1">
         <v>0.83120528494284696</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="1">
         <v>0.15832306978678501</v>
       </c>
     </row>
@@ -3115,16 +3136,16 @@
       <c r="E104">
         <v>100</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>0.60916692833623709</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="1">
         <v>0.84414864115363286</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="1">
         <v>0.15095913261050875</v>
       </c>
     </row>
@@ -3144,16 +3165,16 @@
       <c r="E105">
         <v>3000</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>0.61259306516572298</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1">
         <v>0.82929629629629598</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="1">
         <v>0.84803759090643205</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="1">
         <v>0.158855036988194</v>
       </c>
     </row>
@@ -3173,16 +3194,16 @@
       <c r="E106">
         <v>100</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>0.58898436307888979</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="1">
         <v>0.7144848484848485</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="1">
         <v>0.85998526160648492</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="1">
         <v>0.17848687596500257</v>
       </c>
     </row>
@@ -3202,16 +3223,16 @@
       <c r="E107">
         <v>3000</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>0.5228490861460432</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="1">
         <v>0.76534902090711299</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="1">
         <v>0.83174224995765</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="1">
         <v>0.15861808135230335</v>
       </c>
     </row>
@@ -3231,16 +3252,16 @@
       <c r="E108">
         <v>100</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <v>0.61761499459458336</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="1">
         <v>0.84368070953436802</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="1">
         <v>0.15072302558398221</v>
       </c>
     </row>
@@ -3260,6 +3281,10 @@
       <c r="E109">
         <v>3000</v>
       </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -3277,16 +3302,16 @@
       <c r="E110">
         <v>100</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <v>0.69730673859364234</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="1">
         <v>0.7084242424242424</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="1">
         <v>0.86010591350397181</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="1">
         <v>0.17862296433725006</v>
       </c>
     </row>
@@ -3306,16 +3331,16 @@
       <c r="E111">
         <v>3000</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>0.63846970060777897</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1">
         <v>0.760324768332865</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="1">
         <v>0.83528531737550804</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="1">
         <v>0.16064189189189201</v>
       </c>
     </row>
@@ -3335,16 +3360,16 @@
       <c r="E112">
         <v>100</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>0.6617023347262766</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="1">
         <v>0.80296296296296299</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="1">
         <v>0.84411276948590386</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="1">
         <v>0.15093288777499303</v>
       </c>
     </row>
@@ -3364,16 +3389,16 @@
       <c r="E113">
         <v>3000</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>0.66189198041641295</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1">
         <v>0.82793209876543195</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="1">
         <v>0.84828629032258096</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="1">
         <v>0.15898963918272699</v>
       </c>
     </row>
@@ -3393,16 +3418,16 @@
       <c r="E114">
         <v>100</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
         <v>0.66451561263979531</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="1">
         <v>0.62739393939393939</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="1">
         <v>0.86301531213191995</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="1">
         <v>0.18988764044943821</v>
       </c>
     </row>
@@ -3422,16 +3447,16 @@
       <c r="E115">
         <v>3000</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
         <v>0.58792686382210668</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="1">
         <v>0.67568217309529921</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="1">
         <v>0.83939922563077052</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="1">
         <v>0.16361118590606608</v>
       </c>
     </row>
@@ -3451,16 +3476,16 @@
       <c r="E116">
         <v>100</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="1">
         <v>0.65772780471918779</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="1">
         <v>0.80166666666666664</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="1">
         <v>0.84800838574423476</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="1">
         <v>0.15292096219931273</v>
       </c>
     </row>
@@ -3480,6 +3505,10 @@
       <c r="E117">
         <v>3000</v>
       </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
@@ -3497,16 +3526,16 @@
       <c r="E118">
         <v>100</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
         <v>0.67578754672719943</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="1">
         <v>0.62727272727272732</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="1">
         <v>0.86301531213191995</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="1">
         <v>0.18988764044943821</v>
       </c>
     </row>
@@ -3526,16 +3555,16 @@
       <c r="E119">
         <v>3000</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>0.60036327332353501</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
         <v>0.67556904155361897</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="1">
         <v>0.83945966401204197</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="1">
         <v>0.16366771485645401</v>
       </c>
     </row>
@@ -3555,16 +3584,16 @@
       <c r="E120">
         <v>100</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>0.66303819733575453</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <v>0.80129629629629628</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="1">
         <v>0.84808800419067576</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="1">
         <v>0.15296476654253796</v>
       </c>
     </row>
@@ -3584,16 +3613,16 @@
       <c r="E121">
         <v>3000</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>0.69349744469145203</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <v>0.78854320987654303</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="1">
         <v>0.848963569342716</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="1">
         <v>0.16022872559974999</v>
       </c>
     </row>
@@ -3613,16 +3642,16 @@
       <c r="E122">
         <v>100</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>0.69816901008330312</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="1">
         <v>0.62715151515151513</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="1">
         <v>0.86301531213191995</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="1">
         <v>0.18988764044943821</v>
       </c>
     </row>
@@ -3642,6 +3671,18 @@
       <c r="E123">
         <v>3000</v>
       </c>
+      <c r="F123" s="1">
+        <v>0.6214290998705051</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.67519530342485545</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.83965311588696978</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.16384816723653423</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -3659,16 +3700,16 @@
       <c r="E124">
         <v>100</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>0.66752650730501284</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <v>0.80129629629629628</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="1">
         <v>0.84764397905759159</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <v>0.15272206303724928</v>
       </c>
     </row>
@@ -3688,6 +3729,18 @@
       <c r="E125">
         <v>3000</v>
       </c>
+      <c r="F125" s="1">
+        <v>0.69885968492947825</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.78843827160493829</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.84894438066079858</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0.16022077189589881</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
@@ -3705,16 +3758,16 @@
       <c r="E126">
         <v>100</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>0.77266030799673335</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <v>0.62096969696969695</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="1">
         <v>0.86319256558051993</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="1">
         <v>0.19014876859607452</v>
       </c>
     </row>
@@ -3734,16 +3787,16 @@
       <c r="E127">
         <v>3000</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>0.71026717539259399</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>0.67149630605314403</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="1">
         <v>0.84104774870165899</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="1">
         <v>0.165172526497642</v>
       </c>
     </row>
@@ -3763,16 +3816,16 @@
       <c r="E128">
         <v>100</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>0.70340276553859915</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>0.79962962962962958</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="1">
         <v>0.84788290642969155</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="1">
         <v>0.15285345569257242</v>
       </c>
     </row>
@@ -3792,16 +3845,16 @@
       <c r="E129">
         <v>3000</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>0.72654306949559699</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>0.78722222222222205</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="1">
         <v>0.84900076374745403</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="1">
         <v>0.16026908181378099</v>
       </c>
     </row>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D28BCD-5836-41E1-B7E7-0C66DFA4FF9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE7437B-0D58-4334-AAC0-7360B2005003}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="3060" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="3360" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="N125" sqref="N125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4690,6 +4690,550 @@
         <v>0.15468984460438973</v>
       </c>
     </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1">
+        <v>5</v>
+      </c>
+      <c r="C162" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D162" s="1">
+        <v>12</v>
+      </c>
+      <c r="E162" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1">
+        <v>5</v>
+      </c>
+      <c r="C163" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D163" s="1">
+        <v>12</v>
+      </c>
+      <c r="E163" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1">
+        <v>5</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D164" s="1">
+        <v>36</v>
+      </c>
+      <c r="E164" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1">
+        <v>5</v>
+      </c>
+      <c r="C165" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D165" s="1">
+        <v>36</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1">
+        <v>5</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D166" s="1">
+        <v>12</v>
+      </c>
+      <c r="E166" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1">
+        <v>5</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D167" s="1">
+        <v>12</v>
+      </c>
+      <c r="E167" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D168" s="1">
+        <v>36</v>
+      </c>
+      <c r="E168" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1">
+        <v>5</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D169" s="1">
+        <v>36</v>
+      </c>
+      <c r="E169" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1">
+        <v>5</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D170" s="1">
+        <v>12</v>
+      </c>
+      <c r="E170" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D171" s="1">
+        <v>12</v>
+      </c>
+      <c r="E171" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D172" s="1">
+        <v>36</v>
+      </c>
+      <c r="E172" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D173" s="1">
+        <v>36</v>
+      </c>
+      <c r="E173" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1">
+        <v>5</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D174" s="1">
+        <v>12</v>
+      </c>
+      <c r="E174" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1">
+        <v>5</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>12</v>
+      </c>
+      <c r="E175" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D176" s="1">
+        <v>36</v>
+      </c>
+      <c r="E176" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>36</v>
+      </c>
+      <c r="E177" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1">
+        <v>8</v>
+      </c>
+      <c r="C178" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D178" s="1">
+        <v>12</v>
+      </c>
+      <c r="E178" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1">
+        <v>8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D179" s="1">
+        <v>12</v>
+      </c>
+      <c r="E179" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1">
+        <v>8</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D180" s="1">
+        <v>36</v>
+      </c>
+      <c r="E180" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="1">
+        <v>8</v>
+      </c>
+      <c r="C181" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D181" s="1">
+        <v>36</v>
+      </c>
+      <c r="E181" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D182" s="1">
+        <v>12</v>
+      </c>
+      <c r="E182" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="1">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D183" s="1">
+        <v>12</v>
+      </c>
+      <c r="E183" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="1">
+        <v>8</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D184" s="1">
+        <v>36</v>
+      </c>
+      <c r="E184" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1">
+        <v>8</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D185" s="1">
+        <v>36</v>
+      </c>
+      <c r="E185" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1">
+        <v>8</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D186" s="1">
+        <v>12</v>
+      </c>
+      <c r="E186" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="1">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D187" s="1">
+        <v>12</v>
+      </c>
+      <c r="E187" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="1">
+        <v>8</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D188" s="1">
+        <v>36</v>
+      </c>
+      <c r="E188" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="1">
+        <v>8</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D189" s="1">
+        <v>36</v>
+      </c>
+      <c r="E189" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1">
+        <v>8</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>12</v>
+      </c>
+      <c r="E190" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="1">
+        <v>8</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D191" s="1">
+        <v>12</v>
+      </c>
+      <c r="E191" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="1">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>36</v>
+      </c>
+      <c r="E192" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="1">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>36</v>
+      </c>
+      <c r="E193" s="1">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -4503,10 +4503,18 @@
       <c r="E162" t="n">
         <v>100.0</v>
       </c>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
+      <c r="F162" t="n">
+        <v>0.1433808952052368</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9692410119840214</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.9263803680981595</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.16633013629480062</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -4553,10 +4561,18 @@
       <c r="E164" t="n">
         <v>100.0</v>
       </c>
-      <c r="F164"/>
-      <c r="G164"/>
-      <c r="H164"/>
-      <c r="I164"/>
+      <c r="F164" t="n">
+        <v>0.15974276856641553</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9284603421461898</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.15791520809023726</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -4595,10 +4611,18 @@
       <c r="E166" t="n">
         <v>100.0</v>
       </c>
-      <c r="F166"/>
-      <c r="G166"/>
-      <c r="H166"/>
-      <c r="I166"/>
+      <c r="F166" t="n">
+        <v>0.14896263534094945</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.9692410119840214</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.9269406392694064</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.16638262955248376</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -4645,10 +4669,18 @@
       <c r="E168" t="n">
         <v>100.0</v>
       </c>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
+      <c r="F168" t="n">
+        <v>0.17170765358477752</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.9284603421461898</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.15791520809023726</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -4695,10 +4727,18 @@
       <c r="E170" t="n">
         <v>100.0</v>
       </c>
-      <c r="F170"/>
-      <c r="G170"/>
-      <c r="H170"/>
-      <c r="I170"/>
+      <c r="F170" t="n">
+        <v>0.17440351660038056</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.9692410119840214</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.9381443298969072</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.16764182141948614</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -4745,10 +4785,18 @@
       <c r="E172" t="n">
         <v>100.0</v>
       </c>
-      <c r="F172"/>
-      <c r="G172"/>
-      <c r="H172"/>
-      <c r="I172"/>
+      <c r="F172" t="n">
+        <v>0.18901734942030474</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.9284603421461898</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.15791520809023726</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -4787,10 +4835,18 @@
       <c r="E174" t="n">
         <v>100.0</v>
       </c>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="H174"/>
-      <c r="I174"/>
+      <c r="F174" t="n">
+        <v>0.3039278809473079</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.9666398713826366</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.9394703656998739</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.16782326351308333</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -4837,10 +4893,18 @@
       <c r="E176" t="n">
         <v>100.0</v>
       </c>
-      <c r="F176"/>
-      <c r="G176"/>
-      <c r="H176"/>
-      <c r="I176"/>
+      <c r="F176" t="n">
+        <v>0.24421976408223048</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.9284603421461898</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.15912208504801098</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -4887,10 +4951,18 @@
       <c r="E178" t="n">
         <v>100.0</v>
       </c>
-      <c r="F178"/>
-      <c r="G178"/>
-      <c r="H178"/>
-      <c r="I178"/>
+      <c r="F178" t="n">
+        <v>0.17560842013429573</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.9842077291018146</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.8537647790914747</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.16443966964345666</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -4937,10 +5009,18 @@
       <c r="E180" t="n">
         <v>100.0</v>
       </c>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
+      <c r="F180" t="n">
+        <v>0.21362375262342675</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.9708235294117648</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.867704280155642</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.15472779369627507</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -4979,10 +5059,18 @@
       <c r="E182" t="n">
         <v>100.0</v>
       </c>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="H182"/>
-      <c r="I182"/>
+      <c r="F182" t="n">
+        <v>0.18698208902155497</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.9841318047224964</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.8591971240263631</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.16512709864473063</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
@@ -5029,10 +5117,18 @@
       <c r="E184" t="n">
         <v>100.0</v>
       </c>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="H184"/>
-      <c r="I184"/>
+      <c r="F184" t="n">
+        <v>0.2310144982980061</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.9708235294117648</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.867704280155642</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.15472779369627507</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
@@ -5079,10 +5175,18 @@
       <c r="E186" t="n">
         <v>100.0</v>
       </c>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186"/>
-      <c r="I186"/>
+      <c r="F186" t="n">
+        <v>0.23288861419527046</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.9835219075100615</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.8606994665085952</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.1653277526496996</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -5129,10 +5233,18 @@
       <c r="E188" t="n">
         <v>100.0</v>
       </c>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
+      <c r="F188" t="n">
+        <v>0.25425231885789024</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.9708235294117648</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.867704280155642</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.15472779369627507</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
@@ -5171,10 +5283,18 @@
       <c r="E190" t="n">
         <v>100.0</v>
       </c>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="H190"/>
-      <c r="I190"/>
+      <c r="F190" t="n">
+        <v>0.40856988030321995</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.9808502489467636</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.861664712778429</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.1654724888468298</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -5221,10 +5341,18 @@
       <c r="E192" t="n">
         <v>100.0</v>
       </c>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
-      <c r="I192"/>
+      <c r="F192" t="n">
+        <v>0.33094446597530236</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.8765880217785844</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.15590843472881005</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -4590,10 +4590,18 @@
       <c r="E165" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165"/>
-      <c r="I165"/>
+      <c r="F165" t="n">
+        <v>0.09493530038399876</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9366369696895833</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.8996124746263148</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.1586207777444262</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -5038,10 +5046,18 @@
       <c r="E181" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
+      <c r="F181" t="n">
+        <v>0.24691685334691088</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.9767742809206021</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.875098751777532</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.15936575109480253</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max.xlsx
@@ -1926,10 +1926,18 @@
       <c r="E69" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="F69" t="n">
+        <v>0.336597177186369</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.982395743682028</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8672130208034844</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.15955614281464672</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -2374,10 +2382,18 @@
       <c r="E85" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
+      <c r="F85" t="n">
+        <v>0.5222320615886314</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9536146576023876</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8415995410760809</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.15607133643467624</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
